--- a/BNP_SSD - Shiny/extdata/names.xlsx
+++ b/BNP_SSD - Shiny/extdata/names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">nav4</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Cluster</t>
+    <t xml:space="preserve">4. Clustering</t>
   </si>
   <si>
     <t xml:space="preserve">navabout</t>
@@ -76,117 +76,18 @@
     <t xml:space="preserve">Choose one of the following options:</t>
   </si>
   <si>
-    <t xml:space="preserve">1csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Upload a csv file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1csvhelp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Upload a csv file containing your dataset. The dataset must include a column with at least 8 distinct, positive, non-missing, numeric concentration values. Other useful but optional variables include species and group, which may be used to label and color plot output, respectively. If you have an xls/xlsx file, try exporting a worksheet to csv using excel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1csvlabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload your data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Fill out table below:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1tablehelp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. The table below is interactive and acts like a simple excel spreadsheet. Click on a cell to begin data input. Right-click on the table to delete/insert rows or columns. Column names cannot be changed. The Concentration column must be filled out, with at least 8 distinct, positive, non-missing, numeric values. Species and Group are optional and may be used to format plot outputs. If the table is behaving unexpectedly, please reload the website.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: the app is designed to handle one chemical at a time. Each species should not have more than one concentration value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preview chosen dataset:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iscensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2conc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select column concentration values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2conc_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select column with the lower range of concentration values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2conc_u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select column with the upper range of concentration values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2conchelp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If data are not censored, use the same column in both cases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data in log scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data centered and scaled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select column with species names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous Concentration (HC) %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Nit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the MCMC number of iterations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Png file formatting options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2plot</t>
-  </si>
-  <si>
+    <t xml:space="preserve">1data1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Math TeX Gyre"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -194,7 +95,30 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Plot fitted distributions </t>
+      <t xml:space="preserve">Use censored example data:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1data2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Math TeX Gyre"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Use un</t>
     </r>
     <r>
       <rPr>
@@ -202,8 +126,183 @@
         <rFont val="Helvetica Neue"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(for log center-scaled data)</t>
+      <t xml:space="preserve">censored example </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">acidity data:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1databutton1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salinity data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1databutton2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acidity data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1datahelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This can be used to demo the app or view a dataset that 'works'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Math TeX Gyre"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Upload a csv file</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1csvhelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload a csv file containing your dataset. The dataset must include a column with at least 8 distinct, numeric concentration values. Other useful but optional variables include species and group, which may be used to label and color plot output, respectively. If you have an xls/xlsx file, try exporting a worksheet to csv using excel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1csvlabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload your data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Math TeX Gyre"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Fill out table below:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1tablehelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table below is interactive and acts like a simple excel spreadsheet. Click on a cell to begin data input. Right-click on the table to delete/insert rows or columns. Column names cannot be changed. The « Conc_left » and « Conc_right » columns must be filled out, with at least 8 distinct, numeric values. If the data are uncensored, only one of the « Conc_left » or  « Conc_right » columns must be filled out. Species and Group are optional and may be used to format plot outputs. If the table is behaving unexpectedly, please reload the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: the app is designed to handle one chemical at a time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preview chosen dataset:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iscensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select column concentration values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2conc_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select column with the lower range of concentration values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2conc_u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select column with the upper range of concentration values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2conchelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If data are not censored, use the same column in both cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No log scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No centering and scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select column with species names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazardous Concentration (HC) %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Nit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the MCMC number of iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Png file formatting options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot fitted distributions </t>
   </si>
   <si>
     <t xml:space="preserve">2plot_cpo</t>
@@ -212,12 +311,6 @@
     <t xml:space="preserve">Plot CPOs statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">2table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goodness of Fit table</t>
-  </si>
-  <si>
     <t xml:space="preserve">2weight</t>
   </si>
   <si>
@@ -263,25 +356,13 @@
     <t xml:space="preserve">3plot</t>
   </si>
   <si>
-    <t xml:space="preserve">Plot CDF (for log center-scaled data)</t>
+    <t xml:space="preserve">Plot CDF</t>
   </si>
   <si>
     <t xml:space="preserve">4plot</t>
   </si>
   <si>
-    <t xml:space="preserve">Plot clustering and CDF (for log center-scaled data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a draft and may change at some point in the future.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This webpage fits species sensitivity distributions to concentration data. The user is able to select more than one distribution and plot the individual fits. &lt;br/&gt;&lt;br/&gt;The columns in the goodness of fit table are the distribution (dist), the Anderson-Darling statistic (ad), the Kolmogorov-Smirnov statistic (ks), the Cramer-von Mises statistic (cvm), Akaike's Information Criterion (aic), Akaike's Information Criterion corrected for sample size (aicc), Bayesian Information Criterion (bic), the AICc difference (delta) and the AICc based Akaike weight (weight). The prediction is the model averaged (using aicc) estimate of the fit. The percent hazard concentration is the concentration of the chemical which is predicted to affect that percent of the species tested.&lt;br/&gt;&lt;br/&gt;To cite package ssdtools in publications use:&lt;br/&gt;Thorley, J. and Schwarz C., (2018). ssdtools: An R package to fit Species Sensitivity Distributions. Journal of Open Source Software, 3(31), 1082. https://doi.org/10.21105/joss.01082&lt;br/&gt;&lt;br/&gt;To cite the web app use:&lt;br/&gt;Seb Dalgarno (2018) ssdtools: A shiny web app to analyse species sensitivity distributions. Prepared by Poisson Consulting for the Ministry of the Environment, British Columbia. https://bcgov-env.shinyapps.io/ssdtools/</t>
+    <t xml:space="preserve">Plot clustering and CDF</t>
   </si>
   <si>
     <t xml:space="preserve">hintdata</t>
@@ -414,6 +495,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="DejaVu Math TeX Gyre"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
     </font>
@@ -421,13 +508,6 @@
       <sz val="10"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -486,7 +566,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,7 +587,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +714,7 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -634,7 +722,7 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -642,7 +730,7 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -650,7 +738,7 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -666,7 +754,7 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -690,7 +778,7 @@
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -802,7 +890,7 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -834,7 +922,7 @@
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -874,7 +962,7 @@
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -990,11 +1078,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="9"/>
+    </row>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1023,9 +1125,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="This webpage fits species sensitivity distributions to concentration data. The user is able to select more than one distribution and plot the individual fits. &lt;br/&gt;&lt;br/&gt;The columns in the goodness of fit table are the distribution (dist), the Anderson-Darling statistic (ad), the Kolmogorov-Smirnov statistic (ks), the Cramer-von Mises statistic (cvm), Akaike's Information Criterion (aic), Akaike's Information Criterion corrected for sample size (aicc), Bayesian Information Criterion (bic), the AICc difference (delta) and the AICc based Akaike weight (weight). The prediction is the model averaged (using aicc) estimate of the fit. The percent hazard concentration is the concentration of the chemical which is predicted to affect that percent of the species tested.&lt;br/&gt;&lt;br/&gt;To cite package ssdtools in publications use:&lt;br/&gt;Thorley, J. and Schwarz C., (2018). ssdtools: An R package to fit Species Sensitivity Distributions. Journal of Open Source Software, 3(31), 1082. https://doi.org/10.21105/joss.01082&lt;br/&gt;&lt;br/&gt;To cite the web app use:&lt;br/&gt;Seb Dalgarno (2018) ssdtools: A shiny web app to analyse species sensitivity distributions. Prepared by Poisson Consulting for the Ministry of the Environment, British Columbia. https://bcgov-env.shinyapps.io/ssdtools/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.25"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
